--- a/biology/Biochimie/Irwin_Rose/Irwin_Rose.xlsx
+++ b/biology/Biochimie/Irwin_Rose/Irwin_Rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Irwin A. Rose, né le 16 juillet 1926 à New York et mort le 2 juin 2015 à Deerfield (Massachusetts), est un biochimiste américain. Avram Hershko, Aaron Ciechanover et lui sont colauréats du prix Nobel de chimie de 2004[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irwin A. Rose, né le 16 juillet 1926 à New York et mort le 2 juin 2015 à Deerfield (Massachusetts), est un biochimiste américain. Avram Hershko, Aaron Ciechanover et lui sont colauréats du prix Nobel de chimie de 2004.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rose étudia un an à l'université de l'État de Washington avant de servir dans la US Navy durant la Seconde Guerre mondiale. À son retour, il obtint son Bachelor of Science en 1948 et son doctorat en biochimie en 1952 à l'université de Chicago. En 2010, il est professeur au département de physiologie et de biophysique de la faculté de médecine de l'université de Californie à Irvine.
-Il a obtenu, en 2004, conjointement avec Aaron Ciechanover et Avram Hershko, le prix Nobel de chimie « pour leur découverte de la dégradation contrôlée des protéines par l'ubiquitine[1] ».
+Il a obtenu, en 2004, conjointement avec Aaron Ciechanover et Avram Hershko, le prix Nobel de chimie « pour leur découverte de la dégradation contrôlée des protéines par l'ubiquitine ».
 </t>
         </is>
       </c>
